--- a/F1_Manager_2026.xlsx
+++ b/F1_Manager_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C8707F-3CCC-4BC0-BAF9-5D25EEBC7AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023447A-F968-4AAD-A0A1-B7D76832BEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="947" firstSheet="1" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="963" firstSheet="1" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2026" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="216">
   <si>
     <t>Команда</t>
   </si>
@@ -1457,7 +1457,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B2" sqref="B2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11178,10 +11178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE743902-3D5F-40AC-A0F8-8B2127AC3A26}">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11327,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -11360,7 +11360,7 @@
       <c r="AE2" s="23"/>
       <c r="AF2" s="23"/>
       <c r="AG2" s="23">
-        <f t="shared" ref="AG2:AG23" si="0">SUM(C2:AF2)</f>
+        <f>SUM(C2:AF2)</f>
         <v>0</v>
       </c>
     </row>
@@ -11368,41 +11368,41 @@
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24">
-        <f t="shared" si="0"/>
+      <c r="B3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33">
+        <f>SUM(C3:AF3)</f>
         <v>0</v>
       </c>
     </row>
@@ -11444,7 +11444,7 @@
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="25">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:AF4)</f>
         <v>0</v>
       </c>
     </row>
@@ -11452,41 +11452,41 @@
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24">
-        <f t="shared" si="0"/>
+      <c r="B5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30">
+        <f>SUM(C5:AF5)</f>
         <v>0</v>
       </c>
     </row>
@@ -11494,41 +11494,41 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26">
-        <f t="shared" si="0"/>
+      <c r="B6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27">
+        <f>SUM(C6:AF6)</f>
         <v>0</v>
       </c>
     </row>
@@ -11536,41 +11536,41 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23">
-        <f t="shared" si="0"/>
+      <c r="B7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27">
+        <f>SUM(C7:AF7)</f>
         <v>0</v>
       </c>
     </row>
@@ -11578,41 +11578,41 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33">
-        <f t="shared" si="0"/>
+      <c r="B8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24">
+        <f>SUM(C8:AF8)</f>
         <v>0</v>
       </c>
     </row>
@@ -11620,41 +11620,41 @@
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26">
-        <f t="shared" si="0"/>
+      <c r="B9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28">
+        <f>SUM(C9:AF9)</f>
         <v>0</v>
       </c>
     </row>
@@ -11662,41 +11662,41 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25">
-        <f t="shared" si="0"/>
+      <c r="B10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28">
+        <f>SUM(C10:AF10)</f>
         <v>0</v>
       </c>
     </row>
@@ -11704,41 +11704,41 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28">
-        <f t="shared" si="0"/>
+      <c r="B11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25">
+        <f>SUM(C11:AF11)</f>
         <v>0</v>
       </c>
     </row>
@@ -11746,41 +11746,41 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27">
-        <f t="shared" si="0"/>
+      <c r="B12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30">
+        <f>SUM(C12:AF12)</f>
         <v>0</v>
       </c>
     </row>
@@ -11788,41 +11788,41 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31">
-        <f t="shared" si="0"/>
+      <c r="B13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29">
+        <f>SUM(C13:AF13)</f>
         <v>0</v>
       </c>
     </row>
@@ -11830,41 +11830,41 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31">
-        <f t="shared" si="0"/>
+      <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24">
+        <f>SUM(C14:AF14)</f>
         <v>0</v>
       </c>
     </row>
@@ -11872,41 +11872,41 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33">
-        <f t="shared" si="0"/>
+      <c r="B15" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32">
+        <f>SUM(C15:AF15)</f>
         <v>0</v>
       </c>
     </row>
@@ -11914,41 +11914,41 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32">
-        <f t="shared" si="0"/>
+      <c r="B16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31">
+        <f>SUM(C16:AF16)</f>
         <v>0</v>
       </c>
     </row>
@@ -11956,41 +11956,41 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30">
-        <f t="shared" si="0"/>
+      <c r="B17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23">
+        <f>SUM(C17:AF17)</f>
         <v>0</v>
       </c>
     </row>
@@ -11998,41 +11998,41 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28">
-        <f t="shared" si="0"/>
+      <c r="B18" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29">
+        <f>SUM(C18:AF18)</f>
         <v>0</v>
       </c>
     </row>
@@ -12040,41 +12040,41 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30">
-        <f t="shared" si="0"/>
+      <c r="B19" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33">
+        <f>SUM(C19:AF19)</f>
         <v>0</v>
       </c>
     </row>
@@ -12082,41 +12082,41 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27">
-        <f t="shared" si="0"/>
+      <c r="B20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26">
+        <f>SUM(C20:AF20)</f>
         <v>0</v>
       </c>
     </row>
@@ -12124,41 +12124,41 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29">
-        <f t="shared" si="0"/>
+      <c r="B21" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32">
+        <f>SUM(C21:AF21)</f>
         <v>0</v>
       </c>
     </row>
@@ -12166,41 +12166,41 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29">
-        <f t="shared" si="0"/>
+      <c r="B22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31">
+        <f>SUM(C22:AF22)</f>
         <v>0</v>
       </c>
     </row>
@@ -12208,42 +12208,128 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26">
+        <f>SUM(C23:AF23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B28" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B30" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B32" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -21502,8 +21588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974D5FD-590E-4B73-AD04-D1CD08B49B7E}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21681,7 +21767,10 @@
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
-      <c r="AG2" s="23"/>
+      <c r="AG2" s="23">
+        <f>SUM(C2:AF2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
@@ -21720,7 +21809,10 @@
       <c r="AD3" s="39"/>
       <c r="AE3" s="39"/>
       <c r="AF3" s="39"/>
-      <c r="AG3" s="24"/>
+      <c r="AG3" s="24">
+        <f t="shared" ref="AG3:AG12" si="0">SUM(C3:AF3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
@@ -21759,7 +21851,10 @@
       <c r="AD4" s="40"/>
       <c r="AE4" s="40"/>
       <c r="AF4" s="40"/>
-      <c r="AG4" s="25"/>
+      <c r="AG4" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
@@ -21798,7 +21893,10 @@
       <c r="AD5" s="41"/>
       <c r="AE5" s="41"/>
       <c r="AF5" s="41"/>
-      <c r="AG5" s="26"/>
+      <c r="AG5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
@@ -21837,7 +21935,10 @@
       <c r="AD6" s="42"/>
       <c r="AE6" s="42"/>
       <c r="AF6" s="42"/>
-      <c r="AG6" s="33"/>
+      <c r="AG6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
@@ -21876,7 +21977,10 @@
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
       <c r="AF7" s="48"/>
-      <c r="AG7" s="28"/>
+      <c r="AG7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
@@ -21915,7 +22019,10 @@
       <c r="AD8" s="43"/>
       <c r="AE8" s="43"/>
       <c r="AF8" s="43"/>
-      <c r="AG8" s="27"/>
+      <c r="AG8" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
@@ -21954,7 +22061,10 @@
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
-      <c r="AG9" s="31"/>
+      <c r="AG9" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
@@ -21993,7 +22103,10 @@
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
       <c r="AF10" s="45"/>
-      <c r="AG10" s="30"/>
+      <c r="AG10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
@@ -22032,7 +22145,10 @@
       <c r="AD11" s="46"/>
       <c r="AE11" s="46"/>
       <c r="AF11" s="46"/>
-      <c r="AG11" s="32"/>
+      <c r="AG11" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
@@ -22071,7 +22187,10 @@
       <c r="AD12" s="47"/>
       <c r="AE12" s="47"/>
       <c r="AF12" s="47"/>
-      <c r="AG12" s="29"/>
+      <c r="AG12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AG12">
@@ -25785,7 +25904,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/F1_Manager_2026.xlsx
+++ b/F1_Manager_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD0D77-F0A3-40E5-B749-80A58ADA3EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D8661-21F7-451B-89B7-BE40442D768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="963" firstSheet="1" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2026" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6011" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="202">
   <si>
     <t>Команда</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>JAP</t>
+  </si>
+  <si>
+    <t>Richard Verschoor</t>
   </si>
 </sst>
 </file>
@@ -1411,16 +1414,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
@@ -1627,7 +1630,9 @@
       <c r="B6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>157</v>
       </c>
@@ -25769,8 +25774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255A3466-815D-471F-A2AE-468F677A7BB9}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/F1_Manager_2026.xlsx
+++ b/F1_Manager_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirrus\PycharmProjects\F1_Manager_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D8661-21F7-451B-89B7-BE40442D768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68885E98-AC3B-4938-B95D-0142A8FC2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="963" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="963" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_2026" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6012" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="284">
   <si>
     <t>Команда</t>
   </si>
@@ -675,6 +675,252 @@
   <si>
     <t>Richard Verschoor</t>
   </si>
+  <si>
+    <t>00:26:16</t>
+  </si>
+  <si>
+    <t>+3.409</t>
+  </si>
+  <si>
+    <t>+8.156</t>
+  </si>
+  <si>
+    <t>+0.453</t>
+  </si>
+  <si>
+    <t>+0.407</t>
+  </si>
+  <si>
+    <t>+7.783</t>
+  </si>
+  <si>
+    <t>+0.474</t>
+  </si>
+  <si>
+    <t>+3.870</t>
+  </si>
+  <si>
+    <t>+0.386</t>
+  </si>
+  <si>
+    <t>+0.473</t>
+  </si>
+  <si>
+    <t>+0.313</t>
+  </si>
+  <si>
+    <t>+0.617</t>
+  </si>
+  <si>
+    <t>+0.442</t>
+  </si>
+  <si>
+    <t>+0.497</t>
+  </si>
+  <si>
+    <t>+0.518</t>
+  </si>
+  <si>
+    <t>+0.418</t>
+  </si>
+  <si>
+    <t>+0.682</t>
+  </si>
+  <si>
+    <t>+1.021</t>
+  </si>
+  <si>
+    <t>+3.579</t>
+  </si>
+  <si>
+    <t>+0.798</t>
+  </si>
+  <si>
+    <t>+3.788</t>
+  </si>
+  <si>
+    <t>+3.194</t>
+  </si>
+  <si>
+    <t>1:21.150</t>
+  </si>
+  <si>
+    <t>1:21.621</t>
+  </si>
+  <si>
+    <t>1:20.750</t>
+  </si>
+  <si>
+    <t>1:21.653</t>
+  </si>
+  <si>
+    <t>1:21.514</t>
+  </si>
+  <si>
+    <t>1:22.088</t>
+  </si>
+  <si>
+    <t>1:21.841</t>
+  </si>
+  <si>
+    <t>1:21.520</t>
+  </si>
+  <si>
+    <t>1:21.735</t>
+  </si>
+  <si>
+    <t>1:22.457</t>
+  </si>
+  <si>
+    <t>1:22.141</t>
+  </si>
+  <si>
+    <t>1:21.696</t>
+  </si>
+  <si>
+    <t>1:21.914</t>
+  </si>
+  <si>
+    <t>1:21.857</t>
+  </si>
+  <si>
+    <t>1:22.268</t>
+  </si>
+  <si>
+    <t>1:21.170</t>
+  </si>
+  <si>
+    <t>1:21.688</t>
+  </si>
+  <si>
+    <t>1:22.634</t>
+  </si>
+  <si>
+    <t>1:21.187</t>
+  </si>
+  <si>
+    <t>1:20.782</t>
+  </si>
+  <si>
+    <t>1:22.982</t>
+  </si>
+  <si>
+    <t>1:22.038</t>
+  </si>
+  <si>
+    <t>+1 круг</t>
+  </si>
+  <si>
+    <t>01:21:23</t>
+  </si>
+  <si>
+    <t>+13.067</t>
+  </si>
+  <si>
+    <t>+1.283</t>
+  </si>
+  <si>
+    <t>+23.801</t>
+  </si>
+  <si>
+    <t>+3.768</t>
+  </si>
+  <si>
+    <t>+6.113</t>
+  </si>
+  <si>
+    <t>+2.908</t>
+  </si>
+  <si>
+    <t>+2.272</t>
+  </si>
+  <si>
+    <t>+15.398</t>
+  </si>
+  <si>
+    <t>+0.450</t>
+  </si>
+  <si>
+    <t>+0.109</t>
+  </si>
+  <si>
+    <t>+0.567</t>
+  </si>
+  <si>
+    <t>+0.262</t>
+  </si>
+  <si>
+    <t>+3.774</t>
+  </si>
+  <si>
+    <t>+6.211</t>
+  </si>
+  <si>
+    <t>1:19.978</t>
+  </si>
+  <si>
+    <t>1:18.517</t>
+  </si>
+  <si>
+    <t>1:20.474</t>
+  </si>
+  <si>
+    <t>1:20.537</t>
+  </si>
+  <si>
+    <t>1:19.866</t>
+  </si>
+  <si>
+    <t>1:20.523</t>
+  </si>
+  <si>
+    <t>1:20.822</t>
+  </si>
+  <si>
+    <t>1:20.805</t>
+  </si>
+  <si>
+    <t>1:20.012</t>
+  </si>
+  <si>
+    <t>1:20.952</t>
+  </si>
+  <si>
+    <t>1:20.200</t>
+  </si>
+  <si>
+    <t>1:20.142</t>
+  </si>
+  <si>
+    <t>1:19.566</t>
+  </si>
+  <si>
+    <t>1:20.116</t>
+  </si>
+  <si>
+    <t>1:19.969</t>
+  </si>
+  <si>
+    <t>1:20.199</t>
+  </si>
+  <si>
+    <t>1:20.282</t>
+  </si>
+  <si>
+    <t>1:20.784</t>
+  </si>
+  <si>
+    <t>1:20.830</t>
+  </si>
+  <si>
+    <t>1:20.575</t>
+  </si>
+  <si>
+    <t>1:19.876</t>
+  </si>
+  <si>
+    <t>1:22.103</t>
+  </si>
 </sst>
 </file>
 
@@ -725,7 +971,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +1151,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8847BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -953,7 +1205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,6 +1348,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1104,6 +1398,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8847BD"/>
       <color rgb="FF5BADA7"/>
       <color rgb="FFADC4C7"/>
       <color rgb="FFBEF4BE"/>
@@ -1113,7 +1408,6 @@
       <color rgb="FFFFCD97"/>
       <color rgb="FF00F6D9"/>
       <color rgb="FF8FFFF2"/>
-      <color rgb="FFD9ECFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1414,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11141,7 +11435,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11286,461 +11580,497 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="25">
-        <f t="shared" ref="AG2:AG23" si="0">SUM(C2:AF2)</f>
-        <v>0</v>
+      <c r="B2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="23">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23">
+        <v>25</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="23">
+        <f>SUM(C2:AF2)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="24">
+        <v>5</v>
+      </c>
+      <c r="D3" s="63">
+        <v>19</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="24">
+        <f>SUM(C3:AF3)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="23">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23">
+        <v>15</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="23">
+        <f>SUM(C4:AF4)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24">
+        <v>12</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="24">
+        <f>SUM(C5:AF5)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="62">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27">
+        <v>8</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="27">
+        <f>SUM(C6:AF6)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29">
+        <v>10</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="29">
+        <f>SUM(C7:AF7)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B8" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="32">
+        <f>SUM(C8:AF8)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B9" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>2</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="28">
+        <f>SUM(C9:AF9)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B10" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
+        <v>4</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="33">
+        <f>SUM(C10:AF10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="31">
+        <f>SUM(C11:AF11)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="30">
-        <f t="shared" si="0"/>
+      <c r="B12" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="25">
+        <f>SUM(C12:AF12)</f>
         <v>0</v>
       </c>
     </row>
@@ -11748,41 +12078,41 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="23">
-        <f t="shared" si="0"/>
+      <c r="B13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="30">
+        <f>SUM(C13:AF13)</f>
         <v>0</v>
       </c>
     </row>
@@ -11790,41 +12120,41 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="29">
-        <f t="shared" si="0"/>
+      <c r="B14" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="27">
+        <f>SUM(C14:AF14)</f>
         <v>0</v>
       </c>
     </row>
@@ -11832,41 +12162,41 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="33">
-        <f t="shared" si="0"/>
+      <c r="B15" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="29">
+        <f>SUM(C15:AF15)</f>
         <v>0</v>
       </c>
     </row>
@@ -11874,41 +12204,41 @@
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="26">
-        <f t="shared" si="0"/>
+      <c r="B16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="25">
+        <f>SUM(C16:AF16)</f>
         <v>0</v>
       </c>
     </row>
@@ -11916,41 +12246,41 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="32">
-        <f t="shared" si="0"/>
+      <c r="B17" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="30">
+        <f>SUM(C17:AF17)</f>
         <v>0</v>
       </c>
     </row>
@@ -11958,41 +12288,41 @@
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="28">
-        <f t="shared" si="0"/>
+      <c r="B18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="26">
+        <f>SUM(C18:AF18)</f>
         <v>0</v>
       </c>
     </row>
@@ -12000,41 +12330,41 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="33">
-        <f t="shared" si="0"/>
+      <c r="B19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="32">
+        <f>SUM(C19:AF19)</f>
         <v>0</v>
       </c>
     </row>
@@ -12042,41 +12372,41 @@
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="31">
-        <f t="shared" si="0"/>
+      <c r="B20" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="28">
+        <f>SUM(C20:AF20)</f>
         <v>0</v>
       </c>
     </row>
@@ -12084,41 +12414,41 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="31">
-        <f t="shared" si="0"/>
+      <c r="B21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="33">
+        <f>SUM(C21:AF21)</f>
         <v>0</v>
       </c>
     </row>
@@ -12126,41 +12456,41 @@
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="26">
-        <f t="shared" si="0"/>
+      <c r="B22" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="31">
+        <f>SUM(C22:AF22)</f>
         <v>0</v>
       </c>
     </row>
@@ -12168,39 +12498,41 @@
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
-      <c r="AG23" s="28">
-        <f t="shared" si="0"/>
+      <c r="B23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="26">
+        <f>SUM(C23:AF23)</f>
         <v>0</v>
       </c>
     </row>
@@ -21461,7 +21793,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21608,8 +21940,12 @@
       <c r="B2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="23">
+        <v>15</v>
+      </c>
+      <c r="D2" s="23">
+        <v>40</v>
+      </c>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
@@ -21640,7 +21976,7 @@
       <c r="AF2" s="38"/>
       <c r="AG2" s="23">
         <f>SUM(C2:AF2)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -21650,8 +21986,12 @@
       <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="24">
+        <v>7</v>
+      </c>
+      <c r="D3" s="63">
+        <v>31</v>
+      </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -21681,134 +22021,146 @@
       <c r="AE3" s="39"/>
       <c r="AF3" s="39"/>
       <c r="AG3" s="24">
-        <f t="shared" ref="AG3:AG12" si="0">SUM(C3:AF3)</f>
-        <v>0</v>
+        <f>SUM(C3:AF3)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="62">
+        <v>6</v>
+      </c>
+      <c r="D4" s="27">
+        <v>8</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="27">
+        <f>SUM(C4:AF4)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="29">
+        <v>4</v>
+      </c>
+      <c r="D5" s="29">
+        <v>10</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="29">
+        <f>SUM(C5:AF5)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>6</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="32">
+        <f>SUM(C6:AF6)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -21818,8 +22170,12 @@
       <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="C7" s="28">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2</v>
+      </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -21849,50 +22205,52 @@
       <c r="AE7" s="48"/>
       <c r="AF7" s="48"/>
       <c r="AG7" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C7:AF7)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B8" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
+        <v>4</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="33">
+        <f>SUM(C8:AF8)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
@@ -21902,8 +22260,10 @@
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31">
+        <v>1</v>
+      </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -21933,49 +22293,49 @@
       <c r="AE9" s="44"/>
       <c r="AF9" s="44"/>
       <c r="AG9" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C9:AF9)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="30">
-        <f t="shared" si="0"/>
+      <c r="B10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="25">
+        <f>SUM(C10:AF10)</f>
         <v>0</v>
       </c>
     </row>
@@ -21983,41 +22343,41 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="32">
-        <f t="shared" si="0"/>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="30">
+        <f>SUM(C11:AF11)</f>
         <v>0</v>
       </c>
     </row>
@@ -22025,41 +22385,41 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="29">
-        <f t="shared" si="0"/>
+      <c r="B12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="26">
+        <f>SUM(C12:AF12)</f>
         <v>0</v>
       </c>
     </row>
@@ -26041,8 +26401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C5C77C-2DAC-4C10-9ACE-E35B510013F1}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26084,11 +26444,11 @@
       <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>186</v>
+      <c r="B3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="16"/>
     </row>
@@ -26096,11 +26456,11 @@
       <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>186</v>
+      <c r="B4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="16"/>
     </row>
@@ -26109,10 +26469,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -26121,10 +26481,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -26132,11 +26492,11 @@
       <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>186</v>
+      <c r="B7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="16"/>
     </row>
@@ -26144,11 +26504,11 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>186</v>
+      <c r="B8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -26156,22 +26516,22 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>186</v>
+      <c r="B9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>186</v>
+      <c r="B10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="16"/>
     </row>
@@ -26179,11 +26539,11 @@
       <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>186</v>
+      <c r="B11" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -26191,11 +26551,11 @@
       <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>186</v>
+      <c r="B12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -26203,11 +26563,11 @@
       <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>186</v>
+      <c r="B13" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -26215,11 +26575,11 @@
       <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>186</v>
+      <c r="B14" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="17"/>
     </row>
@@ -26227,11 +26587,11 @@
       <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>186</v>
+      <c r="B15" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -26239,11 +26599,11 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>186</v>
+      <c r="B16" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="16"/>
     </row>
@@ -26251,11 +26611,11 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>186</v>
+      <c r="B17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="17"/>
     </row>
@@ -26263,11 +26623,11 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>186</v>
+      <c r="B18" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="16"/>
     </row>
@@ -26275,22 +26635,22 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>186</v>
+      <c r="B19" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>186</v>
+      <c r="B20" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -26298,11 +26658,11 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>186</v>
+      <c r="B21" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="17"/>
     </row>
@@ -26310,11 +26670,11 @@
       <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>186</v>
+      <c r="B22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -26322,11 +26682,11 @@
       <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>186</v>
+      <c r="B23" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="16"/>
     </row>
@@ -26334,11 +26694,11 @@
       <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>186</v>
+      <c r="B24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="17"/>
     </row>
@@ -26377,19 +26737,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>186</v>
+        <v>224</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="23">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -26397,419 +26757,419 @@
         <v>2</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>186</v>
+        <v>225</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="23">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="34">
         <v>3</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>186</v>
+      <c r="B30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="27">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="34">
         <v>4</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>186</v>
+      <c r="B31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="24">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>5</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>186</v>
+      <c r="B32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="29">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="34">
         <v>6</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>186</v>
+      <c r="B33" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="28">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="34">
         <v>7</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>186</v>
+      <c r="B34" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="34">
         <v>8</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>186</v>
+      <c r="B35" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="32">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34">
         <v>9</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>186</v>
+      <c r="B36" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34">
         <v>10</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>186</v>
+      <c r="B37" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="34">
         <v>11</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>186</v>
+      <c r="B38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="34">
         <v>12</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>186</v>
+      <c r="B39" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="34">
         <v>13</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>186</v>
+      <c r="B40" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34">
         <v>14</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>186</v>
+      <c r="B41" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34">
         <v>15</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>186</v>
+      <c r="B42" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34">
         <v>16</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>186</v>
+      <c r="B43" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="34">
         <v>17</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>186</v>
+      <c r="B44" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34">
         <v>18</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>186</v>
+      <c r="B45" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34">
         <v>19</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>186</v>
+      <c r="B46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34">
         <v>20</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>186</v>
+      <c r="B47" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="34">
         <v>21</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>186</v>
+      <c r="B48" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="34">
         <v>22</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>186</v>
+      <c r="B49" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -26835,120 +27195,131 @@
         <v>1</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
+      </c>
+      <c r="C53" s="23">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="34">
         <v>2</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>186</v>
+      <c r="B54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="24">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="34">
         <v>3</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>186</v>
+      <c r="B55" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="27">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="34">
         <v>4</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>186</v>
+      <c r="B56" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="29">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="34">
         <v>5</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>186</v>
+      <c r="B57" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="28">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="34">
         <v>6</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>186</v>
+      <c r="B58" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="32">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="34">
         <v>7</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>186</v>
+      <c r="B59" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="31">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="34">
         <v>8</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>186</v>
+      <c r="B60" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="25">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="34">
         <v>9</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>186</v>
+      <c r="B61" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="30">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="34">
         <v>10</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>186</v>
+      <c r="B62" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="26">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="34">
         <v>11</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>186</v>
+      <c r="B63" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="33">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26964,8 +27335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1E6CE-0FB1-4721-8050-FE318984A4C9}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27009,10 +27380,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16"/>
     </row>
@@ -27020,11 +27391,11 @@
       <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>186</v>
+      <c r="B4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="16"/>
     </row>
@@ -27033,10 +27404,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -27044,11 +27415,11 @@
       <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>186</v>
+      <c r="B6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -27056,11 +27427,11 @@
       <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>186</v>
+      <c r="B7" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="16"/>
     </row>
@@ -27068,11 +27439,11 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>186</v>
+      <c r="B8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -27080,22 +27451,22 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>186</v>
+      <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>186</v>
+      <c r="B10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="16"/>
     </row>
@@ -27103,11 +27474,11 @@
       <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>186</v>
+      <c r="B11" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -27115,11 +27486,11 @@
       <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>186</v>
+      <c r="B12" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -27127,11 +27498,11 @@
       <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>186</v>
+      <c r="B13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -27139,11 +27510,11 @@
       <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>186</v>
+      <c r="B14" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="17"/>
     </row>
@@ -27151,11 +27522,11 @@
       <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>186</v>
+      <c r="B15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -27163,11 +27534,11 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>186</v>
+      <c r="B16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="16"/>
     </row>
@@ -27175,11 +27546,11 @@
       <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>186</v>
+      <c r="B17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="17"/>
     </row>
@@ -27187,11 +27558,11 @@
       <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>186</v>
+      <c r="B18" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="16"/>
     </row>
@@ -27199,22 +27570,22 @@
       <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>186</v>
+      <c r="B19" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>186</v>
+      <c r="B20" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="17"/>
     </row>
@@ -27222,11 +27593,11 @@
       <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>186</v>
+      <c r="B21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="17"/>
     </row>
@@ -27234,11 +27605,11 @@
       <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>186</v>
+      <c r="B22" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="17"/>
     </row>
@@ -27246,11 +27617,11 @@
       <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>186</v>
+      <c r="B23" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="16"/>
     </row>
@@ -27258,11 +27629,11 @@
       <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>186</v>
+      <c r="B24" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="D24" s="17"/>
     </row>
@@ -27301,39 +27672,39 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>186</v>
+        <v>262</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="23">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="34">
         <v>2</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>186</v>
+      <c r="B29" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="24">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -27341,399 +27712,399 @@
         <v>3</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>186</v>
+        <v>264</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="23">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="34">
         <v>4</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>186</v>
+      <c r="B31" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="24">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>5</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>186</v>
+      <c r="B32" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="29">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="34">
         <v>6</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>186</v>
+      <c r="B33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="34">
         <v>7</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>186</v>
+      <c r="B34" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="32">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="34">
         <v>8</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>186</v>
+      <c r="B35" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="34">
         <v>9</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>186</v>
+      <c r="B36" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="28">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="34">
         <v>10</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>186</v>
+      <c r="B37" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="31">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="34">
         <v>11</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>186</v>
+      <c r="B38" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="34">
         <v>12</v>
       </c>
-      <c r="B39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>186</v>
+      <c r="B39" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="34">
         <v>13</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>186</v>
+      <c r="B40" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="34">
         <v>14</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>186</v>
+      <c r="B41" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="34">
         <v>15</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>186</v>
+      <c r="B42" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="34">
         <v>16</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>186</v>
+      <c r="B43" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="34">
         <v>17</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>186</v>
+      <c r="B44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="34">
         <v>18</v>
       </c>
-      <c r="B45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>186</v>
+      <c r="B45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="34">
         <v>19</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>186</v>
+      <c r="B46" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="34">
         <v>20</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>186</v>
+      <c r="B47" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="34">
         <v>21</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>186</v>
+      <c r="B48" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="34">
         <v>22</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>186</v>
+      <c r="B49" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -27759,120 +28130,131 @@
         <v>1</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>186</v>
+        <v>21</v>
+      </c>
+      <c r="C53" s="23">
+        <f>SUMIF($C$28:$C$49,B53,$F$28:$F$49)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="34">
         <v>2</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>186</v>
+      <c r="B54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="24">
+        <f>SUMIF($C$28:$C$49,B54,$F$28:$F$49)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="34">
         <v>3</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>186</v>
+      <c r="B55" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="29">
+        <f>SUMIF($C$28:$C$49,B55,$F$28:$F$49)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="34">
         <v>4</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>186</v>
+      <c r="B56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="27">
+        <f>SUMIF($C$28:$C$49,B56,$F$28:$F$49)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="34">
         <v>5</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>186</v>
+      <c r="B57" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="32">
+        <f>SUMIF($C$28:$C$49,B57,$F$28:$F$49)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="34">
         <v>6</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>186</v>
+      <c r="B58" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="33">
+        <f>SUMIF($C$28:$C$49,B58,$F$28:$F$49)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="34">
         <v>7</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>186</v>
+      <c r="B59" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="28">
+        <f>SUMIF($C$28:$C$49,B59,$F$28:$F$49)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="34">
         <v>8</v>
       </c>
-      <c r="B60" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>186</v>
+      <c r="B60" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="31">
+        <f>SUMIF($C$28:$C$49,B60,$F$28:$F$49)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="34">
         <v>9</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>186</v>
+      <c r="B61" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="25">
+        <f>SUMIF($C$28:$C$49,B61,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="34">
         <v>10</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>186</v>
+      <c r="B62" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="30">
+        <f>SUMIF($C$28:$C$49,B62,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="34">
         <v>11</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>186</v>
+      <c r="B63" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="26">
+        <f>SUMIF($C$28:$C$49,B63,$F$28:$F$49)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
